--- a/TestExel/TaskData.xlsx
+++ b/TestExel/TaskData.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{44885DBC-069E-49E9-887D-F3358E08A819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="22320" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:W23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,7 +334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -339,4 +343,28 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509FA431-0179-4C00-B16E-669EEB4ACF93}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589353DF-3170-4F84-A555-3518ADA75ACE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestExel/TaskData.xlsx
+++ b/TestExel/TaskData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{44885DBC-069E-49E9-887D-F3358E08A819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{04448F5D-2165-47C3-818B-E4CDE6A6BCB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="22320" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15405" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,21 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:W23"/>
+  <oleSize ref="A1:U32"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>F</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,7 +372,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>